--- a/InventorySummary.xlsx
+++ b/InventorySummary.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
-    <t>True Sum</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Seed</t>
+  </si>
+  <si>
+    <t>True Values</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,13 +587,13 @@
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="27"/>
       <c r="G1" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
@@ -601,34 +601,34 @@
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -658,10 +658,10 @@
         <v>10194561</v>
       </c>
       <c r="I3" s="7">
-        <v>1788777370</v>
+        <v>1753754235</v>
       </c>
       <c r="J3" s="8">
-        <v>1788777370</v>
+        <v>1802674824</v>
       </c>
       <c r="K3" t="b">
         <f>($G$9&gt;I3)&amp;J3&gt;$G$9</f>
@@ -686,8 +686,12 @@
       <c r="D4" s="7">
         <v>1016</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="7">
+        <v>177873.88</v>
+      </c>
+      <c r="F4" s="8">
+        <v>181867.231</v>
+      </c>
       <c r="G4" s="9">
         <v>1755896362</v>
       </c>
@@ -723,8 +727,12 @@
       <c r="D5" s="7">
         <v>997.12448700000004</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="7">
+        <v>177929.78400000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>181848.09899999999</v>
+      </c>
       <c r="G5" s="9">
         <v>1756075845</v>
       </c>
@@ -760,8 +768,12 @@
       <c r="D6" s="7">
         <v>1077.7739160000001</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7">
+        <v>177897.435</v>
+      </c>
+      <c r="F6" s="8">
+        <v>182132</v>
+      </c>
       <c r="G6" s="9">
         <v>1757306944</v>
       </c>
@@ -797,8 +809,12 @@
       <c r="D7" s="12">
         <v>1062.790242</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="12">
+        <v>179135.08300000001</v>
+      </c>
+      <c r="F7" s="12">
+        <v>183238.821</v>
+      </c>
       <c r="G7" s="14">
         <v>1739575744</v>
       </c>
@@ -822,7 +838,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>179774.1</v>
       </c>
       <c r="G9" s="4">
         <v>1754954823</v>
